--- a/printedparts/3D printed parts excel board.xlsx
+++ b/printedparts/3D printed parts excel board.xlsx
@@ -24,12 +24,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>PICTURE</t>
-  </si>
-  <si>
-    <t>Q / PRINTER</t>
-  </si>
-  <si>
     <t>SCROLL_wheel</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>for 220mm GT2 timing belt</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,7 +185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FFC6D9F1"/>
       </patternFill>
     </fill>
@@ -210,7 +222,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,20 +236,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1727,6 +1742,50 @@
         <a:xfrm>
           <a:off x="4191000" y="36245800"/>
           <a:ext cx="1905000" cy="1332919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1860768</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1422400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="Capture d’écran 2018-04-25 à 10.52.29.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4673599" y="4660900"/>
+          <a:ext cx="1060669" cy="1358900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,34 +2121,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="23">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="23">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="113" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
@@ -2102,7 +2161,7 @@
     </row>
     <row r="3" spans="1:7" ht="113" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -2115,7 +2174,7 @@
     </row>
     <row r="4" spans="1:7" ht="113" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
@@ -2128,14 +2187,14 @@
     </row>
     <row r="5" spans="1:7" ht="113" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2143,14 +2202,14 @@
     </row>
     <row r="6" spans="1:7" ht="113" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2158,7 +2217,7 @@
     </row>
     <row r="7" spans="1:7" ht="113" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2171,7 +2230,7 @@
     </row>
     <row r="8" spans="1:7" ht="113" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -2184,7 +2243,7 @@
     </row>
     <row r="9" spans="1:7" ht="113" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -2197,7 +2256,7 @@
     </row>
     <row r="10" spans="1:7" ht="113" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -2210,7 +2269,7 @@
     </row>
     <row r="11" spans="1:7" ht="113" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -2223,7 +2282,7 @@
     </row>
     <row r="12" spans="1:7" ht="113" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -2236,7 +2295,7 @@
     </row>
     <row r="13" spans="1:7" ht="113" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -2249,7 +2308,7 @@
     </row>
     <row r="14" spans="1:7" ht="113" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -2262,7 +2321,7 @@
     </row>
     <row r="15" spans="1:7" ht="113" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -2275,7 +2334,7 @@
     </row>
     <row r="16" spans="1:7" ht="113" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -2288,7 +2347,7 @@
     </row>
     <row r="17" spans="1:7" ht="113" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -2301,7 +2360,7 @@
     </row>
     <row r="18" spans="1:7" ht="113" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -2314,7 +2373,7 @@
     </row>
     <row r="19" spans="1:7" ht="113" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -2327,7 +2386,7 @@
     </row>
     <row r="20" spans="1:7" ht="113" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -2340,7 +2399,7 @@
     </row>
     <row r="21" spans="1:7" ht="113" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -2351,61 +2410,61 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="113" customHeight="1">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="113" customHeight="1">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="113" customHeight="1">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="113" customHeight="1">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="113" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -2418,7 +2477,7 @@
     </row>
     <row r="27" spans="1:7" ht="113" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
@@ -2429,18 +2488,18 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="113" customHeight="1">
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
         <v>3</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/printedparts/3D printed parts excel board.xlsx
+++ b/printedparts/3D printed parts excel board.xlsx
@@ -2121,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
